--- a/V1000_Drive_Programmer/data/V1000_LV_HD_MODS.xlsx
+++ b/V1000_Drive_Programmer/data/V1000_LV_HD_MODS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sferry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sferry\source\repos\V1000_Drive_Programmer\V1000_Drive_Programmer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="23025" windowHeight="9870"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="23025" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>PARAMETER NUMBER</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>ENERGY-SAVING COEFFICIENT</t>
-  </si>
-  <si>
-    <t>C6-01</t>
-  </si>
-  <si>
-    <t>DUTY CYCLE</t>
   </si>
   <si>
     <t>C6-02</t>
@@ -478,11 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -517,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -528,21 +527,24 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,24 +555,21 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>3.2999999523162842</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>3.2999999523162842</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,7 +580,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,80 +594,80 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>1.7999999523162842</v>
+        <v>5.1560001373291016</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>5.1560001373291016</v>
+        <v>13.800000190734863</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>13.800000190734863</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>0.30000001192092896</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +681,7 @@
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,10 +692,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -701,41 +703,27 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="C18">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
